--- a/Final_Project_Table_Data.xlsx
+++ b/Final_Project_Table_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/GD/Coding/codefellows/401/final-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7B036C-5BD6-DC41-BB1C-3D1D92CFED8D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C257F21-797A-8B47-8DBB-2480B39CF4CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{F88FDB1C-3FF9-4905-B676-5439EA0E3782}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="7" xr2:uid="{F88FDB1C-3FF9-4905-B676-5439EA0E3782}"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="218">
   <si>
     <t>Name</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Markup</t>
-  </si>
-  <si>
-    <t>Updated</t>
   </si>
   <si>
     <t>Unit</t>
@@ -762,13 +759,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1105,7 +1101,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1121,169 +1117,169 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="9">
+        <v>37</v>
+      </c>
+      <c r="F2" s="8">
         <v>0.13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="9">
+        <v>38</v>
+      </c>
+      <c r="F3" s="8">
         <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="9">
+        <v>39</v>
+      </c>
+      <c r="F4" s="8">
         <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="9">
+        <v>40</v>
+      </c>
+      <c r="F5" s="8">
         <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="9">
+        <v>41</v>
+      </c>
+      <c r="F6" s="8">
         <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="9">
+        <v>42</v>
+      </c>
+      <c r="F7" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="9">
+        <v>43</v>
+      </c>
+      <c r="F8" s="8">
         <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
+      <c r="B11" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1306,7 +1302,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1323,366 +1319,366 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="11">
+        <v>14</v>
+      </c>
+      <c r="G2" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="11">
+        <v>15</v>
+      </c>
+      <c r="G3" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="11">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="11">
+        <v>23</v>
+      </c>
+      <c r="G5" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>134</v>
+        <v>87</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="11">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="11">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="11">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="11">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="11">
+        <v>13</v>
+      </c>
+      <c r="G10" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="11">
+        <v>13</v>
+      </c>
+      <c r="G11" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="11">
+        <v>13</v>
+      </c>
+      <c r="G12" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="11">
+        <v>13</v>
+      </c>
+      <c r="G13" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="11">
+        <v>17</v>
+      </c>
+      <c r="G14" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="11">
+        <v>17</v>
+      </c>
+      <c r="G15" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="11">
+        <v>17</v>
+      </c>
+      <c r="G16" s="10">
         <v>80</v>
       </c>
     </row>
@@ -1728,433 +1724,433 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2165,10 +2161,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E3F15D-9C5E-4766-9CBB-C156829E4256}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2178,7 +2174,7 @@
     <col min="3" max="5" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2195,24 +2191,21 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2">
         <v>0.75</v>
@@ -2232,16 +2225,13 @@
       <c r="H2">
         <v>0.2</v>
       </c>
-      <c r="I2" s="3">
-        <v>43577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3">
         <v>0.75</v>
@@ -2261,16 +2251,13 @@
       <c r="H3">
         <v>0.2</v>
       </c>
-      <c r="I3" s="3">
-        <v>43577</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4">
         <v>0.75</v>
@@ -2290,16 +2277,13 @@
       <c r="H4">
         <v>0.2</v>
       </c>
-      <c r="I4" s="3">
-        <v>43577</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5">
         <v>0.75</v>
@@ -2319,16 +2303,13 @@
       <c r="H5">
         <v>0.2</v>
       </c>
-      <c r="I5" s="3">
-        <v>43577</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6">
         <v>0.75</v>
@@ -2348,16 +2329,13 @@
       <c r="H6">
         <v>0.2</v>
       </c>
-      <c r="I6" s="3">
-        <v>43577</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7">
         <v>0.75</v>
@@ -2377,16 +2355,13 @@
       <c r="H7">
         <v>0.2</v>
       </c>
-      <c r="I7" s="3">
-        <v>43577</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8">
         <v>0.75</v>
@@ -2406,16 +2381,13 @@
       <c r="H8">
         <v>0.2</v>
       </c>
-      <c r="I8" s="3">
-        <v>43578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <v>0.75</v>
@@ -2435,16 +2407,13 @@
       <c r="H9">
         <v>0.2</v>
       </c>
-      <c r="I9" s="3">
-        <v>43577</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10">
         <v>0.75</v>
@@ -2464,16 +2433,13 @@
       <c r="H10">
         <v>0.2</v>
       </c>
-      <c r="I10" s="3">
-        <v>43577</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11">
         <v>0.75</v>
@@ -2493,16 +2459,13 @@
       <c r="H11">
         <v>0.2</v>
       </c>
-      <c r="I11" s="3">
-        <v>43577</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12">
         <v>0.75</v>
@@ -2522,16 +2485,13 @@
       <c r="H12">
         <v>0.2</v>
       </c>
-      <c r="I12" s="3">
-        <v>43577</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13">
         <v>0.75</v>
@@ -2551,16 +2511,13 @@
       <c r="H13">
         <v>0.2</v>
       </c>
-      <c r="I13" s="3">
-        <v>43577</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14">
         <v>0.75</v>
@@ -2580,16 +2537,13 @@
       <c r="H14">
         <v>0.2</v>
       </c>
-      <c r="I14" s="3">
-        <v>43577</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15">
         <v>0.75</v>
@@ -2609,16 +2563,13 @@
       <c r="H15">
         <v>0.2</v>
       </c>
-      <c r="I15" s="3">
-        <v>43577</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16">
         <v>0.75</v>
@@ -2638,16 +2589,13 @@
       <c r="H16">
         <v>0.2</v>
       </c>
-      <c r="I16" s="3">
-        <v>43577</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17">
         <v>0.75</v>
@@ -2667,16 +2615,13 @@
       <c r="H17">
         <v>0.2</v>
       </c>
-      <c r="I17" s="3">
-        <v>43577</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18">
         <v>0.75</v>
@@ -2696,16 +2641,13 @@
       <c r="H18">
         <v>0.2</v>
       </c>
-      <c r="I18" s="3">
-        <v>43577</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19">
         <v>0.75</v>
@@ -2725,16 +2667,13 @@
       <c r="H19">
         <v>0.2</v>
       </c>
-      <c r="I19" s="3">
-        <v>43577</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" t="s">
         <v>216</v>
-      </c>
-      <c r="B20" t="s">
-        <v>217</v>
       </c>
       <c r="C20">
         <v>0.5</v>
@@ -2753,9 +2692,6 @@
       </c>
       <c r="H20">
         <v>0.2</v>
-      </c>
-      <c r="I20" s="3">
-        <v>43577</v>
       </c>
     </row>
   </sheetData>
@@ -2789,10 +2725,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -2800,16 +2736,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
         <v>135</v>
-      </c>
-      <c r="B2" t="s">
-        <v>136</v>
       </c>
       <c r="C2">
         <v>4.25</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2">
         <v>0.15</v>
@@ -2817,16 +2753,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
         <v>138</v>
-      </c>
-      <c r="B3" t="s">
-        <v>139</v>
       </c>
       <c r="C3">
         <v>24.35</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3">
         <v>0.15</v>
@@ -2842,8 +2778,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2864,57 +2800,57 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2934,31 +2870,31 @@
       <c r="I2">
         <v>3</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>167</v>
+      <c r="J2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2978,31 +2914,31 @@
       <c r="I3">
         <v>3</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>167</v>
+      <c r="J3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -3022,31 +2958,31 @@
       <c r="I4">
         <v>3</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3066,31 +3002,31 @@
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>167</v>
+      <c r="J5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -3110,31 +3046,31 @@
       <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>167</v>
+      <c r="J6" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -3154,31 +3090,31 @@
       <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="K7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>167</v>
+      <c r="K7" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -3198,31 +3134,31 @@
       <c r="I8">
         <v>2</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>167</v>
+      <c r="J8" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>157</v>
+        <v>46</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -3242,31 +3178,31 @@
       <c r="I9">
         <v>2</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>167</v>
+      <c r="J9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>158</v>
+        <v>46</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -3286,31 +3222,31 @@
       <c r="I10">
         <v>2</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>167</v>
+      <c r="J10" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>159</v>
+        <v>46</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -3330,31 +3266,31 @@
       <c r="I11">
         <v>2</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>167</v>
+      <c r="M11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>160</v>
+        <v>46</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -3374,31 +3310,31 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>167</v>
+      <c r="J12" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>160</v>
+        <v>47</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -3418,31 +3354,31 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>167</v>
+      <c r="J13" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>157</v>
+        <v>47</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -3462,31 +3398,31 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>167</v>
+      <c r="L14" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>158</v>
+        <v>47</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -3506,31 +3442,31 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>167</v>
+      <c r="J15" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>159</v>
+        <v>47</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16">
         <v>4</v>
@@ -3550,31 +3486,31 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>167</v>
+      <c r="J16" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>161</v>
+        <v>87</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -3594,31 +3530,31 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>167</v>
+      <c r="J17" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>162</v>
+        <v>87</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -3638,31 +3574,31 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>167</v>
+      <c r="J18" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>163</v>
+        <v>87</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -3682,31 +3618,31 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="K19" s="6" t="s">
+      <c r="J19" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>167</v>
+      <c r="K19" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>164</v>
+        <v>87</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -3726,31 +3662,31 @@
       <c r="I20">
         <v>3</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>167</v>
+      <c r="N20" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>161</v>
+        <v>88</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3770,31 +3706,31 @@
       <c r="I21">
         <v>3</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>167</v>
+      <c r="J21" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>162</v>
+        <v>88</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -3814,31 +3750,31 @@
       <c r="I22">
         <v>3</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>167</v>
+      <c r="J22" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>163</v>
+        <v>88</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -3858,31 +3794,31 @@
       <c r="I23">
         <v>2</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>167</v>
+      <c r="J23" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>164</v>
+        <v>88</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -3902,31 +3838,31 @@
       <c r="I24">
         <v>2</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>167</v>
+      <c r="J24" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>161</v>
+        <v>89</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3946,31 +3882,31 @@
       <c r="I25">
         <v>2</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>167</v>
+      <c r="J25" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>162</v>
+        <v>89</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -3990,31 +3926,31 @@
       <c r="I26">
         <v>2</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>167</v>
+      <c r="J26" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>163</v>
+        <v>89</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -4034,31 +3970,31 @@
       <c r="I27">
         <v>2</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>167</v>
+      <c r="J27" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>164</v>
+        <v>89</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -4078,31 +4014,31 @@
       <c r="I28">
         <v>2</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>167</v>
+      <c r="J28" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>165</v>
+        <v>89</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -4122,31 +4058,31 @@
       <c r="I29">
         <v>2</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>167</v>
+      <c r="J29" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>161</v>
+        <v>90</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -4166,31 +4102,31 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>167</v>
+      <c r="J30" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>162</v>
+        <v>90</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -4210,31 +4146,31 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>167</v>
+      <c r="J31" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>163</v>
+        <v>90</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -4254,31 +4190,31 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>167</v>
+      <c r="J32" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>161</v>
+        <v>91</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -4298,31 +4234,31 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>167</v>
+      <c r="J33" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>162</v>
+        <v>91</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -4342,31 +4278,31 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>167</v>
+      <c r="J34" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>163</v>
+        <v>91</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -4386,31 +4322,31 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>167</v>
+      <c r="J35" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>164</v>
+        <v>91</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -4430,31 +4366,31 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>167</v>
+      <c r="J36" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>161</v>
+        <v>92</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -4474,31 +4410,31 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N37" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>162</v>
+        <v>92</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -4518,31 +4454,31 @@
       <c r="I38">
         <v>3</v>
       </c>
-      <c r="J38" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>167</v>
+      <c r="J38" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>163</v>
+        <v>92</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -4562,31 +4498,31 @@
       <c r="I39">
         <v>3</v>
       </c>
-      <c r="J39" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>167</v>
+      <c r="J39" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>164</v>
+        <v>92</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -4606,31 +4542,31 @@
       <c r="I40">
         <v>3</v>
       </c>
-      <c r="J40" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>167</v>
+      <c r="J40" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>161</v>
+        <v>93</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -4650,31 +4586,31 @@
       <c r="I41">
         <v>2</v>
       </c>
-      <c r="J41" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>167</v>
+      <c r="J41" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>162</v>
+        <v>93</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -4694,31 +4630,31 @@
       <c r="I42">
         <v>2</v>
       </c>
-      <c r="J42" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>167</v>
+      <c r="J42" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>163</v>
+        <v>93</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -4738,31 +4674,31 @@
       <c r="I43">
         <v>2</v>
       </c>
-      <c r="J43" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>168</v>
+      <c r="J43" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>164</v>
+        <v>93</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D44">
         <v>4</v>
@@ -4782,31 +4718,31 @@
       <c r="I44">
         <v>2</v>
       </c>
-      <c r="J44" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>167</v>
+      <c r="J44" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>165</v>
+        <v>93</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D45">
         <v>5</v>
@@ -4826,31 +4762,31 @@
       <c r="I45">
         <v>2</v>
       </c>
-      <c r="J45" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>167</v>
+      <c r="J45" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>161</v>
+        <v>94</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -4870,31 +4806,31 @@
       <c r="I46">
         <v>2</v>
       </c>
-      <c r="J46" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>167</v>
+      <c r="J46" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>162</v>
+        <v>94</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -4914,31 +4850,31 @@
       <c r="I47">
         <v>2</v>
       </c>
-      <c r="J47" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>167</v>
+      <c r="J47" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>163</v>
+        <v>94</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -4958,31 +4894,31 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>167</v>
+      <c r="J48" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>164</v>
+        <v>94</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49">
         <v>4</v>
@@ -5002,31 +4938,31 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N49" s="6" t="s">
-        <v>167</v>
+      <c r="J49" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>165</v>
+        <v>94</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50">
         <v>5</v>
@@ -5046,31 +4982,31 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N50" s="6" t="s">
-        <v>167</v>
+      <c r="J50" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>161</v>
+        <v>95</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -5090,31 +5026,31 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N51" s="6" t="s">
-        <v>167</v>
+      <c r="J51" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>162</v>
+        <v>95</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -5134,31 +5070,31 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>167</v>
+      <c r="J52" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>163</v>
+        <v>95</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -5178,31 +5114,31 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>167</v>
+      <c r="J53" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>164</v>
+        <v>95</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -5222,31 +5158,31 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>167</v>
+      <c r="J54" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>161</v>
+        <v>96</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -5266,31 +5202,31 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>167</v>
+      <c r="J55" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>162</v>
+        <v>96</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -5310,31 +5246,31 @@
       <c r="I56">
         <v>3</v>
       </c>
-      <c r="J56" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="N56" s="6" t="s">
-        <v>167</v>
+      <c r="J56" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>163</v>
+        <v>96</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -5354,31 +5290,31 @@
       <c r="I57">
         <v>3</v>
       </c>
-      <c r="J57" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M57" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="N57" s="7" t="s">
-        <v>167</v>
+      <c r="J57" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>97</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>164</v>
+        <v>96</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D58">
         <v>4</v>
@@ -5398,31 +5334,31 @@
       <c r="I58">
         <v>3</v>
       </c>
-      <c r="J58" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M58" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="N58" s="7" t="s">
-        <v>167</v>
+      <c r="J58" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>165</v>
+        <v>96</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D59">
         <v>5</v>
@@ -5442,31 +5378,31 @@
       <c r="I59">
         <v>2</v>
       </c>
-      <c r="J59" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M59" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="N59" s="7" t="s">
-        <v>167</v>
+      <c r="J59" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>98</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>161</v>
+        <v>97</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -5486,31 +5422,31 @@
       <c r="I60">
         <v>2</v>
       </c>
-      <c r="J60" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="L60" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="M60" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="N60" s="8" t="s">
-        <v>168</v>
+      <c r="J60" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>98</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>162</v>
+        <v>97</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -5530,31 +5466,31 @@
       <c r="I61">
         <v>2</v>
       </c>
-      <c r="J61" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M61" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="N61" s="7" t="s">
-        <v>167</v>
+      <c r="J61" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>98</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>163</v>
+        <v>97</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -5574,31 +5510,31 @@
       <c r="I62">
         <v>2</v>
       </c>
-      <c r="J62" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M62" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="N62" s="7" t="s">
-        <v>167</v>
+      <c r="J62" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>98</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>164</v>
+        <v>97</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -5618,31 +5554,31 @@
       <c r="I63">
         <v>2</v>
       </c>
-      <c r="J63" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M63" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="N63" s="7" t="s">
-        <v>167</v>
+      <c r="J63" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>98</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>165</v>
+        <v>97</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D64">
         <v>5</v>
@@ -5662,20 +5598,20 @@
       <c r="I64">
         <v>2</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="J64" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="M64" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K64" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M64" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="N64" s="7" t="s">
-        <v>167</v>
+      <c r="N64" s="6" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5699,178 +5635,178 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" t="s">
         <v>197</v>
-      </c>
-      <c r="B1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2">
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3">
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B12">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B14">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16">
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5880,396 +5816,676 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B892EEE5-FE5E-7440-BEA9-3A69116FAA13}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
       <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
       <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
       <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
       <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
       <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
       <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
       <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>10</v>
       </c>
-      <c r="C15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
       <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
       <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
       <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
       <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>12</v>
       </c>
-      <c r="C21" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
       <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
         <v>12</v>
       </c>
-      <c r="C22" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
       <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
         <v>12</v>
       </c>
-      <c r="C23" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
       <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
         <v>12</v>
       </c>
-      <c r="C24" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
       <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>4</v>
       </c>
-      <c r="C25" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
       <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>4</v>
       </c>
-      <c r="C26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
       <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
         <v>4</v>
       </c>
-      <c r="C27" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
       <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
         <v>4</v>
       </c>
-      <c r="C28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
         <v>4</v>
       </c>
-      <c r="C29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
       <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
         <v>6</v>
       </c>
-      <c r="C30" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
       <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
         <v>6</v>
       </c>
-      <c r="C31" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
       <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
         <v>6</v>
       </c>
-      <c r="C32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
       <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
         <v>8</v>
       </c>
-      <c r="C33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
       <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
         <v>8</v>
       </c>
-      <c r="C34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
       <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
         <v>8</v>
       </c>
-      <c r="C35" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
       <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
         <v>8</v>
       </c>
-      <c r="C36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
       <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
         <v>8</v>
       </c>
-      <c r="C37" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
       <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
         <v>10</v>
       </c>
-      <c r="C38" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
       <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
         <v>10</v>
       </c>
-      <c r="C39" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
       <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
         <v>10</v>
       </c>
-      <c r="C40" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
       <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
         <v>10</v>
       </c>
-      <c r="C41" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>95</v>
+      </c>
       <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
         <v>10</v>
       </c>
-      <c r="C42" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
       <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
         <v>10</v>
       </c>
-      <c r="C43" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
       <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
         <v>12</v>
       </c>
-      <c r="C44" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
       <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
         <v>12</v>
       </c>
-      <c r="C45" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
       <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
         <v>12</v>
       </c>
-      <c r="C46" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
       <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
         <v>12</v>
       </c>
-      <c r="C47" t="s">
-        <v>216</v>
+      <c r="D47" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/Final_Project_Table_Data.xlsx
+++ b/Final_Project_Table_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/GD/Coding/codefellows/401/final-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C257F21-797A-8B47-8DBB-2480B39CF4CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D4E0F2-1ECE-2542-9FBD-3917C254E4C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="7" xr2:uid="{F88FDB1C-3FF9-4905-B676-5439EA0E3782}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{F88FDB1C-3FF9-4905-B676-5439EA0E3782}"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="220">
   <si>
     <t>Name</t>
   </si>
@@ -692,6 +692,12 @@
   </si>
   <si>
     <t>Material</t>
+  </si>
+  <si>
+    <t>3/4 Prefinished Maple Plywood</t>
+  </si>
+  <si>
+    <t>3/4 A1 Select Maple Plywood</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1713,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2161,10 +2167,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E3F15D-9C5E-4766-9CBB-C156829E4256}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2332,10 +2338,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="C7">
         <v>0.75</v>
@@ -2347,7 +2353,7 @@
         <v>96</v>
       </c>
       <c r="F7">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G7">
         <v>0.15</v>
@@ -2358,10 +2364,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C8">
         <v>0.75</v>
@@ -2373,7 +2379,7 @@
         <v>96</v>
       </c>
       <c r="F8">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="G8">
         <v>0.15</v>
@@ -2384,25 +2390,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="C9">
         <v>0.75</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E9">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="F9">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="G9">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H9">
         <v>0.2</v>
@@ -2410,10 +2416,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C10">
         <v>0.75</v>
@@ -2425,7 +2431,7 @@
         <v>120</v>
       </c>
       <c r="F10">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10">
         <v>0.1</v>
@@ -2436,10 +2442,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11">
         <v>0.75</v>
@@ -2462,10 +2468,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12">
         <v>0.75</v>
@@ -2488,10 +2494,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13">
         <v>0.75</v>
@@ -2503,7 +2509,7 @@
         <v>120</v>
       </c>
       <c r="F13">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="G13">
         <v>0.1</v>
@@ -2514,10 +2520,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14">
         <v>0.75</v>
@@ -2540,10 +2546,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15">
         <v>0.75</v>
@@ -2566,10 +2572,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16">
         <v>0.75</v>
@@ -2592,22 +2598,22 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C17">
         <v>0.75</v>
       </c>
       <c r="D17">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E17">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="F17">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -2618,10 +2624,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18">
         <v>0.75</v>
@@ -2633,7 +2639,7 @@
         <v>96</v>
       </c>
       <c r="F18">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -2644,10 +2650,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C19">
         <v>0.75</v>
@@ -2659,7 +2665,7 @@
         <v>96</v>
       </c>
       <c r="F19">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -2670,13 +2676,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="C20">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D20">
         <v>48</v>
@@ -2688,9 +2694,61 @@
         <v>40</v>
       </c>
       <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
         <v>0.2</v>
       </c>
-      <c r="H20">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21">
+        <v>0.75</v>
+      </c>
+      <c r="D21">
+        <v>48</v>
+      </c>
+      <c r="E21">
+        <v>96</v>
+      </c>
+      <c r="F21">
+        <v>40</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22">
+        <v>0.5</v>
+      </c>
+      <c r="D22">
+        <v>48</v>
+      </c>
+      <c r="E22">
+        <v>96</v>
+      </c>
+      <c r="F22">
+        <v>40</v>
+      </c>
+      <c r="G22">
+        <v>0.2</v>
+      </c>
+      <c r="H22">
         <v>0.2</v>
       </c>
     </row>
@@ -2778,7 +2836,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
@@ -5818,7 +5876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B892EEE5-FE5E-7440-BEA9-3A69116FAA13}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
